--- a/DDF/Phase2.1/TY_03/TestData_02B.xlsx
+++ b/DDF/Phase2.1/TY_03/TestData_02B.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Delivery Final Summary</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Print</t>
   </si>
 </sst>
 </file>
@@ -66,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +383,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>